--- a/Bluetooth_Igniter_SANIC/BOM.xlsx
+++ b/Bluetooth_Igniter_SANIC/BOM.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabis\Downloads\Avionics\Bluetooth_Igniter_SANIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3E84B072-100A-41E2-BCAC-D1FC91FEF6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA11095F-399B-4FD7-B766-A1A5DEF09C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bluetooth_ignite_receiver" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>Reference</t>
   </si>
@@ -34,6 +45,18 @@
     <t xml:space="preserve"> Footprint</t>
   </si>
   <si>
+    <t>MPN</t>
+  </si>
+  <si>
+    <t>Price($)</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1 </t>
   </si>
   <si>
@@ -43,30 +66,48 @@
     <t>Capacitor_SMD:C_0603_1608Metric</t>
   </si>
   <si>
+    <t>TAJB107K006RNJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">C10 C11 C12 </t>
   </si>
   <si>
     <t>22uF</t>
   </si>
   <si>
+    <t>CL21A226MQQNNNE</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2 </t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
+    <t>CL05A105KP5NNNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jlcpcb.com/parts/componentSearch?isFirstLevel=true&amp;firstSortUuid=1a513feddccb44f5bf49e1f5b9e5ffdb&amp;firstName=Capacitors </t>
+  </si>
+  <si>
     <t xml:space="preserve">C3 C4 C5 </t>
   </si>
   <si>
     <t>1nF</t>
   </si>
   <si>
+    <t>CL21B102KBCNNNC</t>
+  </si>
+  <si>
     <t xml:space="preserve">C6 C7 </t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
+    <t>CL05A106MQ5NUNC</t>
+  </si>
+  <si>
     <t xml:space="preserve">C8 </t>
   </si>
   <si>
@@ -142,7 +183,7 @@
     <t>Connector_USB:USB_C_Receptacle_XKB_U262-16XN-4BVC11</t>
   </si>
   <si>
-    <t xml:space="preserve">J6 J7 </t>
+    <t xml:space="preserve">J6 J7 J10 </t>
   </si>
   <si>
     <t>Conn_01x02_Male</t>
@@ -151,6 +192,24 @@
     <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
   </si>
   <si>
+    <t xml:space="preserve">J8 </t>
+  </si>
+  <si>
+    <t>Conn_01x04_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9 </t>
+  </si>
+  <si>
+    <t>Conn_01x07_Male</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x07_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1 </t>
   </si>
   <si>
@@ -253,15 +312,6 @@
     <t>5K</t>
   </si>
   <si>
-    <t xml:space="preserve">TP1 TP2 TP3 TP4 TP5 TP6 </t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>TestPoint:TestPoint_THTPad_1.0x1.0mm_Drill0.5mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">U1 </t>
   </si>
   <si>
@@ -298,41 +348,14 @@
     <t>Package_SON:Texas_S-PWSON-N10_ThermalVias</t>
   </si>
   <si>
-    <t>MPN</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Price($)</t>
-  </si>
-  <si>
-    <t>TAJB107K006RNJ</t>
-  </si>
-  <si>
-    <t>https://jlcpcb.com/parts/componentSearch?isFirstLevel=true&amp;firstSortUuid=1a513feddccb44f5bf49e1f5b9e5ffdb&amp;firstName=Capacitors</t>
-  </si>
-  <si>
-    <t>CL21A226MQQNNNE</t>
-  </si>
-  <si>
-    <t>CL05A105KP5NNNC</t>
-  </si>
-  <si>
-    <t>CL21B102KBCNNNC</t>
-  </si>
-  <si>
-    <t>CL05A106MQ5NUNC</t>
+    <t xml:space="preserve">https://jlcpcb.com/parts/componentSearch?isFirstLevel=true&amp;firstSortUuid=1a513feddccb44f5bf49e1f5b9e5ffdb&amp;firstName=Capacitors  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,12 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -481,20 +498,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF2B8CED"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,12 +677,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8F8"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -840,17 +839,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1206,19 +1199,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="78.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" width="89.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1235,165 +1225,165 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
         <v>0.20519999999999999</v>
       </c>
       <c r="G2">
         <f>F2*B2</f>
         <v>0.20519999999999999</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>97</v>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G39" si="0">F3*B3</f>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>97</v>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="H4" t="s">
-        <v>97</v>
+      <c r="H4" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
         <v>1.09E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
         <v>3.27E-2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>97</v>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="H6" t="s">
-        <v>97</v>
+      <c r="H6" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1402,16 +1392,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1420,16 +1410,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1438,16 +1428,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1456,16 +1446,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1474,16 +1464,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1492,16 +1482,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1510,16 +1500,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1528,16 +1518,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1546,16 +1536,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -1564,16 +1554,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -1582,16 +1572,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -1600,16 +1590,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -1618,16 +1608,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -1636,16 +1626,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -1654,16 +1644,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -1672,16 +1662,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>500</v>
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -1690,16 +1680,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -1708,16 +1698,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -1726,16 +1716,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -1744,16 +1734,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -1762,16 +1752,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
@@ -1780,16 +1770,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -1798,16 +1788,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -1816,16 +1806,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>470</v>
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
@@ -1834,16 +1824,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -1852,16 +1842,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>470</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -1870,16 +1860,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
@@ -1888,16 +1878,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
@@ -1906,16 +1896,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
@@ -1924,16 +1914,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
@@ -1942,16 +1932,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
@@ -1959,6 +1949,18 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
       <c r="G39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1966,9 +1968,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Bluetooth_Igniter_SANIC/BOM.xlsx
+++ b/Bluetooth_Igniter_SANIC/BOM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabis\Downloads\Avionics\Bluetooth_Igniter_SANIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA11095F-399B-4FD7-B766-A1A5DEF09C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBAA8CF-7FFF-4F7A-A1FE-CA9647C607E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bluetooth_ignite_receiver" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock Check" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Reference</t>
   </si>
@@ -349,13 +350,19 @@
   </si>
   <si>
     <t xml:space="preserve">https://jlcpcb.com/parts/componentSearch?isFirstLevel=true&amp;firstSortUuid=1a513feddccb44f5bf49e1f5b9e5ffdb&amp;firstName=Capacitors  </t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,8 +505,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +691,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -841,9 +867,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1202,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1976,4 +2005,55 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082C2972-3D30-42FE-AE37-121AF73F0926}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>